--- a/output/StructureDefinition-claim.xlsx
+++ b/output/StructureDefinition-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-12T22:14:31+00:00</t>
+    <t>2022-01-12T22:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1794,7 +1794,7 @@
     <t>Claim.item.diagnosisSequence</t>
   </si>
   <si>
-    <t>Referência a sequência do diagnóstico(Claim.diagnosis) usado caso ajam item(s)</t>
+    <t>Referência a sequência do diagnóstico(Claim.diagnosis) usado caso aja(m) item(s)</t>
   </si>
   <si>
     <t>Need to related the product or service to the associated diagnoses.</t>
@@ -1803,7 +1803,7 @@
     <t>Claim.item.procedureSequence</t>
   </si>
   <si>
-    <t>Referência a sequência do diagnóstico(Claim.procedure) usado caso ajam item(s)</t>
+    <t>Referência a sequência do diagnóstico(Claim.procedure) usado caso aja(m) item(s)</t>
   </si>
   <si>
     <t>Need to provide any listed specific procedures to support the product or service being claimed.</t>
@@ -1867,7 +1867,7 @@
 Bill CodeService Code</t>
   </si>
   <si>
-    <t>Produtos e/ou Serviços aplicados</t>
+    <t>Produtos e/ou Serviços usados</t>
   </si>
   <si>
     <t>If this is an actual service or product line, i.e. not a Group, then use code to indicate the Professional Service or Product supplied (e.g. CTP, HCPCS, USCLS, ICD10, NCPDP, DIN, RxNorm, ACHI, CCI). If a grouping item then use a group code to indicate the type of thing being grouped e.g. 'glasses' or 'compound'.</t>

--- a/output/StructureDefinition-claim.xlsx
+++ b/output/StructureDefinition-claim.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5489" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5488" uniqueCount="713">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-12T22:59:26+00:00</t>
+    <t>2022-01-14T02:11:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -675,7 +675,7 @@
 </t>
   </si>
   <si>
-    <t>Referência o paciente do sinistro</t>
+    <t>Referência ao paciente do sinistro</t>
   </si>
   <si>
     <t>The patient must be supplied to the insurer so that confirmation of coverage and service history may be considered as part of the authorization and/or adjudiction.</t>
@@ -769,342 +769,343 @@
     <t>Claim.provider</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Practitioner)
+</t>
+  </si>
+  <si>
+    <t>Referência ao(s) profissional(is) de saúde</t>
+  </si>
+  <si>
+    <t>Typically this field would be 1..1 where this party is responsible for the claim but not necessarily professionally responsible for the provision of the individual products and services listed below.</t>
+  </si>
+  <si>
+    <t>Request.requester</t>
+  </si>
+  <si>
+    <t>FiveWs.source</t>
+  </si>
+  <si>
+    <t>Claim.priority</t>
+  </si>
+  <si>
+    <t>Prioridade para o sinistro ser processado</t>
+  </si>
+  <si>
+    <t>If a claim processor is unable to complete the processing as per the priority then they should generate and error and not process the request.</t>
+  </si>
+  <si>
+    <t>The provider may need to indicate their processing requirements so that the processor can indicate if they are unable to comply.</t>
+  </si>
+  <si>
+    <t>The timeliness with which processing is required: stat, normal, deferred.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/process-priority</t>
+  </si>
+  <si>
+    <t>Request.priority</t>
+  </si>
+  <si>
+    <t>Claim.fundsReserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fund pre-allocation
+</t>
+  </si>
+  <si>
+    <t>For whom to reserve funds</t>
+  </si>
+  <si>
+    <t>A code to indicate whether and for whom funds are to be reserved for future claims.</t>
+  </si>
+  <si>
+    <t>This field is only used for preauthorizations.</t>
+  </si>
+  <si>
+    <t>In the case of a Pre-Determination/Pre-Authorization the provider may request that funds in the amount of the expected Benefit be reserved ('Patient' or 'Provider') to pay for the Benefits determined on the subsequent claim(s). 'None' explicitly indicates no funds reserving is requested.</t>
+  </si>
+  <si>
+    <t>For whom funds are to be reserved: (Patient, Provider, None).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/fundsreserve</t>
+  </si>
+  <si>
+    <t>Claim.related</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Prior or corollary claims</t>
+  </si>
+  <si>
+    <t>Other claims which are related to this claim such as prior submissions or claims for related services or for the same event.</t>
+  </si>
+  <si>
+    <t>For example,  for the original treatment and follow-up exams.</t>
+  </si>
+  <si>
+    <t>For workplace or other accidents it is common to relate separate claims arising from the same event.</t>
+  </si>
+  <si>
+    <t>Claim.related.id</t>
+  </si>
+  <si>
+    <t>Claim.related.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Claim.related.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Claim.related.claim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Claim)
+</t>
+  </si>
+  <si>
+    <t>Reference to the related claim</t>
+  </si>
+  <si>
+    <t>Reference to a related claim.</t>
+  </si>
+  <si>
+    <t>Request.replaces</t>
+  </si>
+  <si>
+    <t>Claim.related.relationship</t>
+  </si>
+  <si>
+    <t>How the reference claim is related</t>
+  </si>
+  <si>
+    <t>A code to convey how the claims are related.</t>
+  </si>
+  <si>
+    <t>For example, prior claim or umbrella.</t>
+  </si>
+  <si>
+    <t>Some insurers need a declaration of the type of relationship.</t>
+  </si>
+  <si>
+    <t>Relationship of this claim to a related Claim.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/related-claim-relationship</t>
+  </si>
+  <si>
+    <t>Claim.related.reference</t>
+  </si>
+  <si>
+    <t>File or case reference</t>
+  </si>
+  <si>
+    <t>An alternate organizational reference to the case or file to which this particular claim pertains.</t>
+  </si>
+  <si>
+    <t>For example, Property/Casualty insurer claim # or Workers Compensation case # .</t>
+  </si>
+  <si>
+    <t>In cases where an event-triggered claim is being submitted to an insurer which requires a reference number to be specified on all exchanges.</t>
+  </si>
+  <si>
+    <t>Claim.prescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(DeviceRequest|MedicationRequest|VisionPrescription)
+</t>
+  </si>
+  <si>
+    <t>Prescription authorizing services and products</t>
+  </si>
+  <si>
+    <t>Prescription to support the dispensing of pharmacy, device or vision products.</t>
+  </si>
+  <si>
+    <t>Required to authorize the dispensing of controlled substances and devices.</t>
+  </si>
+  <si>
+    <t>Claim.originalPrescription</t>
+  </si>
+  <si>
+    <t>Original prescription if superseded by fulfiller</t>
+  </si>
+  <si>
+    <t>Original prescription which has been superseded by this prescription to support the dispensing of pharmacy services, medications or products.</t>
+  </si>
+  <si>
+    <t>For example, a physician may prescribe a medication which the pharmacy determines is contraindicated, or for which the patient has an intolerance, and therefore issues a new prescription for an alternate medication which has the same therapeutic intent. The prescription from the pharmacy becomes the 'prescription' and that from the physician becomes the 'original prescription'.</t>
+  </si>
+  <si>
+    <t>Often required when a fulfiller varies what is fulfilled from that authorized on the original prescription.</t>
+  </si>
+  <si>
+    <t>Claim.payee</t>
+  </si>
+  <si>
+    <t>Recipient of benefits payable</t>
+  </si>
+  <si>
+    <t>The party to be reimbursed for cost of the products and services according to the terms of the policy.</t>
+  </si>
+  <si>
+    <t>Often providers agree to receive the benefits payable to reduce the near-term costs to the patient. The insurer may decline to pay the provider and choose to pay the subscriber instead.</t>
+  </si>
+  <si>
+    <t>The provider needs to specify who they wish to be reimbursed and the claims processor needs express who they will reimburse.</t>
+  </si>
+  <si>
+    <t>Claim.payee.id</t>
+  </si>
+  <si>
+    <t>Claim.payee.extension</t>
+  </si>
+  <si>
+    <t>Claim.payee.modifierExtension</t>
+  </si>
+  <si>
+    <t>Claim.payee.type</t>
+  </si>
+  <si>
+    <t>Category of recipient</t>
+  </si>
+  <si>
+    <t>Type of Party to be reimbursed: subscriber, provider, other.</t>
+  </si>
+  <si>
+    <t>Need to know who should receive payment with the most common situations being the Provider (assignment of benefits) or the Subscriber.</t>
+  </si>
+  <si>
+    <t>A code for the party to be reimbursed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/payeetype</t>
+  </si>
+  <si>
+    <t>Claim.payee.party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>Recipient reference</t>
+  </si>
+  <si>
+    <t>Reference to the individual or organization to whom any payment will be made.</t>
+  </si>
+  <si>
+    <t>Not required if the payee is 'subscriber' or 'provider'.</t>
+  </si>
+  <si>
+    <t>Need to provide demographics if the payee is not 'subscriber' nor 'provider'.</t>
+  </si>
+  <si>
+    <t>Claim.referral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>Treatment referral</t>
+  </si>
+  <si>
+    <t>A reference to a referral resource.</t>
+  </si>
+  <si>
+    <t>The referral resource which lists the date, practitioner, reason and other supporting information.</t>
+  </si>
+  <si>
+    <t>Some insurers require proof of referral to pay for services or to pay specialist rates for services.</t>
+  </si>
+  <si>
+    <t>FiveWs.cause</t>
+  </si>
+  <si>
+    <t>Claim.facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>Servicing facility</t>
+  </si>
+  <si>
+    <t>Facility where the services were provided.</t>
+  </si>
+  <si>
+    <t>Insurance adjudication can be dependant on where services were delivered.</t>
+  </si>
+  <si>
+    <t>FiveWs.where[x]</t>
+  </si>
+  <si>
+    <t>Claim.careTeam</t>
+  </si>
+  <si>
+    <t>Members of the care team</t>
+  </si>
+  <si>
+    <t>The members of the team who provided the products and services.</t>
+  </si>
+  <si>
+    <t>Common to identify the responsible and supporting practitioners.</t>
+  </si>
+  <si>
+    <t>Claim.careTeam.id</t>
+  </si>
+  <si>
+    <t>Claim.careTeam.extension</t>
+  </si>
+  <si>
+    <t>Claim.careTeam.modifierExtension</t>
+  </si>
+  <si>
+    <t>Claim.careTeam.sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Order of care team</t>
+  </si>
+  <si>
+    <t>A number to uniquely identify care team entries.</t>
+  </si>
+  <si>
+    <t>Necessary to maintain the order of the care team and provide a mechanism to link individuals to claim details.</t>
+  </si>
+  <si>
+    <t>Claim.careTeam.provider</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
 </t>
-  </si>
-  <si>
-    <t>Party responsible for the claim</t>
-  </si>
-  <si>
-    <t>The provider which is responsible for the claim, predetermination or preauthorization.</t>
-  </si>
-  <si>
-    <t>Typically this field would be 1..1 where this party is responsible for the claim but not necessarily professionally responsible for the provision of the individual products and services listed below.</t>
-  </si>
-  <si>
-    <t>Request.requester</t>
-  </si>
-  <si>
-    <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>Claim.priority</t>
-  </si>
-  <si>
-    <t>Prioridade para o sinistro ser processado</t>
-  </si>
-  <si>
-    <t>If a claim processor is unable to complete the processing as per the priority then they should generate and error and not process the request.</t>
-  </si>
-  <si>
-    <t>The provider may need to indicate their processing requirements so that the processor can indicate if they are unable to comply.</t>
-  </si>
-  <si>
-    <t>The timeliness with which processing is required: stat, normal, deferred.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/process-priority</t>
-  </si>
-  <si>
-    <t>Request.priority</t>
-  </si>
-  <si>
-    <t>Claim.fundsReserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fund pre-allocation
-</t>
-  </si>
-  <si>
-    <t>For whom to reserve funds</t>
-  </si>
-  <si>
-    <t>A code to indicate whether and for whom funds are to be reserved for future claims.</t>
-  </si>
-  <si>
-    <t>This field is only used for preauthorizations.</t>
-  </si>
-  <si>
-    <t>In the case of a Pre-Determination/Pre-Authorization the provider may request that funds in the amount of the expected Benefit be reserved ('Patient' or 'Provider') to pay for the Benefits determined on the subsequent claim(s). 'None' explicitly indicates no funds reserving is requested.</t>
-  </si>
-  <si>
-    <t>For whom funds are to be reserved: (Patient, Provider, None).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/fundsreserve</t>
-  </si>
-  <si>
-    <t>Claim.related</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Prior or corollary claims</t>
-  </si>
-  <si>
-    <t>Other claims which are related to this claim such as prior submissions or claims for related services or for the same event.</t>
-  </si>
-  <si>
-    <t>For example,  for the original treatment and follow-up exams.</t>
-  </si>
-  <si>
-    <t>For workplace or other accidents it is common to relate separate claims arising from the same event.</t>
-  </si>
-  <si>
-    <t>Claim.related.id</t>
-  </si>
-  <si>
-    <t>Claim.related.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Claim.related.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Claim.related.claim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Claim)
-</t>
-  </si>
-  <si>
-    <t>Reference to the related claim</t>
-  </si>
-  <si>
-    <t>Reference to a related claim.</t>
-  </si>
-  <si>
-    <t>Request.replaces</t>
-  </si>
-  <si>
-    <t>Claim.related.relationship</t>
-  </si>
-  <si>
-    <t>How the reference claim is related</t>
-  </si>
-  <si>
-    <t>A code to convey how the claims are related.</t>
-  </si>
-  <si>
-    <t>For example, prior claim or umbrella.</t>
-  </si>
-  <si>
-    <t>Some insurers need a declaration of the type of relationship.</t>
-  </si>
-  <si>
-    <t>Relationship of this claim to a related Claim.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/related-claim-relationship</t>
-  </si>
-  <si>
-    <t>Claim.related.reference</t>
-  </si>
-  <si>
-    <t>File or case reference</t>
-  </si>
-  <si>
-    <t>An alternate organizational reference to the case or file to which this particular claim pertains.</t>
-  </si>
-  <si>
-    <t>For example, Property/Casualty insurer claim # or Workers Compensation case # .</t>
-  </si>
-  <si>
-    <t>In cases where an event-triggered claim is being submitted to an insurer which requires a reference number to be specified on all exchanges.</t>
-  </si>
-  <si>
-    <t>Claim.prescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(DeviceRequest|MedicationRequest|VisionPrescription)
-</t>
-  </si>
-  <si>
-    <t>Prescription authorizing services and products</t>
-  </si>
-  <si>
-    <t>Prescription to support the dispensing of pharmacy, device or vision products.</t>
-  </si>
-  <si>
-    <t>Required to authorize the dispensing of controlled substances and devices.</t>
-  </si>
-  <si>
-    <t>Claim.originalPrescription</t>
-  </si>
-  <si>
-    <t>Original prescription if superseded by fulfiller</t>
-  </si>
-  <si>
-    <t>Original prescription which has been superseded by this prescription to support the dispensing of pharmacy services, medications or products.</t>
-  </si>
-  <si>
-    <t>For example, a physician may prescribe a medication which the pharmacy determines is contraindicated, or for which the patient has an intolerance, and therefore issues a new prescription for an alternate medication which has the same therapeutic intent. The prescription from the pharmacy becomes the 'prescription' and that from the physician becomes the 'original prescription'.</t>
-  </si>
-  <si>
-    <t>Often required when a fulfiller varies what is fulfilled from that authorized on the original prescription.</t>
-  </si>
-  <si>
-    <t>Claim.payee</t>
-  </si>
-  <si>
-    <t>Recipient of benefits payable</t>
-  </si>
-  <si>
-    <t>The party to be reimbursed for cost of the products and services according to the terms of the policy.</t>
-  </si>
-  <si>
-    <t>Often providers agree to receive the benefits payable to reduce the near-term costs to the patient. The insurer may decline to pay the provider and choose to pay the subscriber instead.</t>
-  </si>
-  <si>
-    <t>The provider needs to specify who they wish to be reimbursed and the claims processor needs express who they will reimburse.</t>
-  </si>
-  <si>
-    <t>Claim.payee.id</t>
-  </si>
-  <si>
-    <t>Claim.payee.extension</t>
-  </si>
-  <si>
-    <t>Claim.payee.modifierExtension</t>
-  </si>
-  <si>
-    <t>Claim.payee.type</t>
-  </si>
-  <si>
-    <t>Category of recipient</t>
-  </si>
-  <si>
-    <t>Type of Party to be reimbursed: subscriber, provider, other.</t>
-  </si>
-  <si>
-    <t>Need to know who should receive payment with the most common situations being the Provider (assignment of benefits) or the Subscriber.</t>
-  </si>
-  <si>
-    <t>A code for the party to be reimbursed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/payeetype</t>
-  </si>
-  <si>
-    <t>Claim.payee.party</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson)
-</t>
-  </si>
-  <si>
-    <t>Recipient reference</t>
-  </si>
-  <si>
-    <t>Reference to the individual or organization to whom any payment will be made.</t>
-  </si>
-  <si>
-    <t>Not required if the payee is 'subscriber' or 'provider'.</t>
-  </si>
-  <si>
-    <t>Need to provide demographics if the payee is not 'subscriber' nor 'provider'.</t>
-  </si>
-  <si>
-    <t>Claim.referral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Treatment referral</t>
-  </si>
-  <si>
-    <t>A reference to a referral resource.</t>
-  </si>
-  <si>
-    <t>The referral resource which lists the date, practitioner, reason and other supporting information.</t>
-  </si>
-  <si>
-    <t>Some insurers require proof of referral to pay for services or to pay specialist rates for services.</t>
-  </si>
-  <si>
-    <t>FiveWs.cause</t>
-  </si>
-  <si>
-    <t>Claim.facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>Servicing facility</t>
-  </si>
-  <si>
-    <t>Facility where the services were provided.</t>
-  </si>
-  <si>
-    <t>Insurance adjudication can be dependant on where services were delivered.</t>
-  </si>
-  <si>
-    <t>FiveWs.where[x]</t>
-  </si>
-  <si>
-    <t>Claim.careTeam</t>
-  </si>
-  <si>
-    <t>Members of the care team</t>
-  </si>
-  <si>
-    <t>The members of the team who provided the products and services.</t>
-  </si>
-  <si>
-    <t>Common to identify the responsible and supporting practitioners.</t>
-  </si>
-  <si>
-    <t>Claim.careTeam.id</t>
-  </si>
-  <si>
-    <t>Claim.careTeam.extension</t>
-  </si>
-  <si>
-    <t>Claim.careTeam.modifierExtension</t>
-  </si>
-  <si>
-    <t>Claim.careTeam.sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Order of care team</t>
-  </si>
-  <si>
-    <t>A number to uniquely identify care team entries.</t>
-  </si>
-  <si>
-    <t>Necessary to maintain the order of the care team and provide a mechanism to link individuals to claim details.</t>
-  </si>
-  <si>
-    <t>Claim.careTeam.provider</t>
   </si>
   <si>
     <t>Practitioner or organization</t>
@@ -1617,10 +1618,7 @@
 </t>
   </si>
   <si>
-    <t>Insurance information</t>
-  </si>
-  <si>
-    <t>Reference to the insurance card level information contained in the Coverage resource. The coverage issuing insurer will use these details to locate the patient's actual coverage within the insurer's information system.</t>
+    <t>Referência a cobertura</t>
   </si>
   <si>
     <t>Required to allow the adjudicator to locate the correct policy and history within their information system.</t>
@@ -1876,9 +1874,6 @@
     <t>Necessary to state what was provided or done.</t>
   </si>
   <si>
-    <t>Allowable service and product codes.</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/service-uscls</t>
   </si>
   <si>
@@ -2110,6 +2105,9 @@
   </si>
   <si>
     <t>When the value is a group code then this item collects a set of related claim details, otherwise this contains the product, service, drug or other billing code for the item.</t>
+  </si>
+  <si>
+    <t>Allowable service and product codes.</t>
   </si>
   <si>
     <t>Claim.item.detail.modifier</t>
@@ -5408,10 +5406,10 @@
         <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5476,10 +5474,10 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5487,7 +5485,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5513,16 +5511,16 @@
         <v>188</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5550,11 +5548,11 @@
         <v>202</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>253</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5571,7 +5569,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>85</v>
@@ -5586,7 +5584,7 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
@@ -5597,11 +5595,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5623,16 +5621,16 @@
         <v>188</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5660,11 +5658,11 @@
         <v>202</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>262</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5681,7 +5679,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5707,7 +5705,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5730,19 +5728,19 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5791,7 +5789,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5817,7 +5815,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5923,7 +5921,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5949,10 +5947,10 @@
         <v>130</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>166</v>
@@ -6031,11 +6029,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -6057,10 +6055,10 @@
         <v>130</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>166</v>
@@ -6115,7 +6113,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -6141,7 +6139,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6164,17 +6162,17 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -6223,7 +6221,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -6238,7 +6236,7 @@
         <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -6249,7 +6247,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6275,16 +6273,16 @@
         <v>188</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -6312,11 +6310,11 @@
         <v>202</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
       </c>
@@ -6333,7 +6331,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -6359,7 +6357,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6385,16 +6383,16 @@
         <v>171</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
@@ -6443,7 +6441,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -6469,7 +6467,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6492,17 +6490,17 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>77</v>
@@ -6551,7 +6549,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -6577,7 +6575,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6600,19 +6598,19 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6661,7 +6659,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6687,7 +6685,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6710,19 +6708,19 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6771,7 +6769,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6797,7 +6795,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6903,7 +6901,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6929,10 +6927,10 @@
         <v>130</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>166</v>
@@ -7011,11 +7009,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -7037,10 +7035,10 @@
         <v>130</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>166</v>
@@ -7095,7 +7093,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -7121,7 +7119,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7147,14 +7145,14 @@
         <v>188</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -7182,11 +7180,11 @@
         <v>202</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
       </c>
@@ -7203,7 +7201,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>85</v>
@@ -7229,7 +7227,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7252,19 +7250,19 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -7313,7 +7311,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -7339,7 +7337,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7362,19 +7360,19 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -7423,7 +7421,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -7441,7 +7439,7 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7449,7 +7447,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7472,17 +7470,17 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7531,7 +7529,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -7549,7 +7547,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7557,7 +7555,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7580,17 +7578,17 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7639,7 +7637,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7665,7 +7663,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7771,7 +7769,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7797,10 +7795,10 @@
         <v>130</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>166</v>
@@ -7879,11 +7877,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7905,10 +7903,10 @@
         <v>130</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>166</v>
@@ -7963,7 +7961,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7989,7 +7987,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8012,17 +8010,17 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -8071,7 +8069,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>85</v>
@@ -8097,7 +8095,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8120,7 +8118,7 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>242</v>
+        <v>350</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>351</v>
@@ -8179,7 +8177,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>85</v>
@@ -8556,7 +8554,7 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>376</v>
@@ -8775,10 +8773,10 @@
         <v>130</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>166</v>
@@ -8861,7 +8859,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8883,10 +8881,10 @@
         <v>130</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>166</v>
@@ -8941,7 +8939,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8990,7 +8988,7 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>385</v>
@@ -9642,7 +9640,7 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>419</v>
@@ -9859,10 +9857,10 @@
         <v>130</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>166</v>
@@ -9945,7 +9943,7 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9967,10 +9965,10 @@
         <v>130</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>166</v>
@@ -10025,7 +10023,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -10074,7 +10072,7 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>427</v>
@@ -10728,7 +10726,7 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>460</v>
@@ -10945,10 +10943,10 @@
         <v>130</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>166</v>
@@ -11031,7 +11029,7 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11053,10 +11051,10 @@
         <v>130</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>166</v>
@@ -11111,7 +11109,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -11160,7 +11158,7 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>467</v>
@@ -11810,7 +11808,7 @@
         <v>86</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>494</v>
@@ -12029,10 +12027,10 @@
         <v>130</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>166</v>
@@ -12115,7 +12113,7 @@
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12137,10 +12135,10 @@
         <v>130</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>166</v>
@@ -12195,7 +12193,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>75</v>
@@ -12244,7 +12242,7 @@
         <v>86</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>503</v>
@@ -12578,11 +12576,11 @@
         <v>518</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>77</v>
@@ -12657,7 +12655,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12683,14 +12681,14 @@
         <v>87</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>77</v>
@@ -12739,7 +12737,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>75</v>
@@ -12765,7 +12763,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12791,16 +12789,16 @@
         <v>87</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>77</v>
@@ -12849,7 +12847,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>75</v>
@@ -12875,7 +12873,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12898,19 +12896,19 @@
         <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="K96" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="K96" t="s" s="2">
+      <c r="L96" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>77</v>
@@ -12959,7 +12957,7 @@
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>75</v>
@@ -12985,7 +12983,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13008,17 +13006,17 @@
         <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>77</v>
@@ -13067,7 +13065,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>75</v>
@@ -13093,7 +13091,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13199,7 +13197,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13225,10 +13223,10 @@
         <v>130</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>166</v>
@@ -13307,11 +13305,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -13333,10 +13331,10 @@
         <v>130</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M100" t="s" s="2">
         <v>166</v>
@@ -13391,7 +13389,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>75</v>
@@ -13417,7 +13415,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13440,19 +13438,19 @@
         <v>77</v>
       </c>
       <c r="J101" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="K101" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="K101" t="s" s="2">
+      <c r="L101" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>77</v>
@@ -13501,7 +13499,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>85</v>
@@ -13527,7 +13525,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13553,14 +13551,14 @@
         <v>188</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>77</v>
@@ -13588,11 +13586,11 @@
         <v>193</v>
       </c>
       <c r="X102" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="Y102" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="Y102" t="s" s="2">
-        <v>554</v>
-      </c>
       <c r="Z102" t="s" s="2">
         <v>77</v>
       </c>
@@ -13609,7 +13607,7 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>75</v>
@@ -13635,7 +13633,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13658,17 +13656,17 @@
         <v>77</v>
       </c>
       <c r="J103" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="K103" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="K103" t="s" s="2">
+      <c r="L103" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>77</v>
@@ -13717,7 +13715,7 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>75</v>
@@ -13743,7 +13741,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13766,17 +13764,17 @@
         <v>77</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>77</v>
@@ -13825,7 +13823,7 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>75</v>
@@ -13851,7 +13849,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13957,7 +13955,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13983,10 +13981,10 @@
         <v>130</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M106" t="s" s="2">
         <v>166</v>
@@ -14065,11 +14063,11 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -14091,10 +14089,10 @@
         <v>130</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M107" t="s" s="2">
         <v>166</v>
@@ -14149,7 +14147,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>75</v>
@@ -14175,7 +14173,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14198,17 +14196,17 @@
         <v>77</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>77</v>
@@ -14257,7 +14255,7 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>85</v>
@@ -14283,7 +14281,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14306,17 +14304,17 @@
         <v>77</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>77</v>
@@ -14365,7 +14363,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>75</v>
@@ -14391,7 +14389,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14414,17 +14412,17 @@
         <v>77</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>77</v>
@@ -14473,7 +14471,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>75</v>
@@ -14499,7 +14497,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14522,17 +14520,17 @@
         <v>77</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>77</v>
@@ -14581,7 +14579,7 @@
         <v>77</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>75</v>
@@ -14607,7 +14605,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14630,17 +14628,17 @@
         <v>77</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L112" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>583</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>77</v>
@@ -14689,7 +14687,7 @@
         <v>77</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>75</v>
@@ -14715,7 +14713,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14741,14 +14739,14 @@
         <v>188</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>77</v>
@@ -14776,11 +14774,11 @@
         <v>202</v>
       </c>
       <c r="X113" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="Y113" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="Y113" t="s" s="2">
-        <v>590</v>
-      </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
       </c>
@@ -14797,7 +14795,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>75</v>
@@ -14823,7 +14821,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14849,16 +14847,16 @@
         <v>188</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="M114" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>77</v>
@@ -14886,11 +14884,11 @@
         <v>202</v>
       </c>
       <c r="X114" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="Y114" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="Y114" t="s" s="2">
-        <v>597</v>
-      </c>
       <c r="Z114" t="s" s="2">
         <v>77</v>
       </c>
@@ -14907,7 +14905,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>75</v>
@@ -14933,11 +14931,11 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -14959,16 +14957,16 @@
         <v>188</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="L115" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>77</v>
@@ -14995,11 +14993,9 @@
       <c r="W115" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="X115" t="s" s="2">
-        <v>603</v>
-      </c>
+      <c r="X115" s="2"/>
       <c r="Y115" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>77</v>
@@ -15017,7 +15013,7 @@
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>85</v>
@@ -15043,7 +15039,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15069,16 +15065,16 @@
         <v>188</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="L116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>77</v>
@@ -15106,10 +15102,10 @@
         <v>202</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>77</v>
@@ -15127,7 +15123,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>75</v>
@@ -15153,7 +15149,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15179,16 +15175,16 @@
         <v>188</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>77</v>
@@ -15216,10 +15212,10 @@
         <v>202</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>77</v>
@@ -15237,7 +15233,7 @@
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>75</v>
@@ -15263,7 +15259,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15289,14 +15285,14 @@
         <v>217</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -15343,7 +15339,7 @@
         <v>159</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>75</v>
@@ -15369,10 +15365,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>77</v>
@@ -15397,14 +15393,14 @@
         <v>217</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>77</v>
@@ -15453,7 +15449,7 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>75</v>
@@ -15479,7 +15475,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15502,17 +15498,17 @@
         <v>77</v>
       </c>
       <c r="J120" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>77</v>
@@ -15540,10 +15536,10 @@
         <v>202</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>77</v>
@@ -15561,7 +15557,7 @@
         <v>77</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>75</v>
@@ -15579,7 +15575,7 @@
         <v>77</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>77</v>
@@ -15587,7 +15583,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15610,17 +15606,17 @@
         <v>77</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>77</v>
@@ -15669,7 +15665,7 @@
         <v>77</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>75</v>
@@ -15695,7 +15691,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15718,17 +15714,17 @@
         <v>77</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>77</v>
@@ -15777,7 +15773,7 @@
         <v>77</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>75</v>
@@ -15803,7 +15799,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15826,19 +15822,19 @@
         <v>77</v>
       </c>
       <c r="J123" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="K123" t="s" s="2">
+      <c r="M123" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="L123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>77</v>
@@ -15887,7 +15883,7 @@
         <v>77</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>75</v>
@@ -15913,7 +15909,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15936,19 +15932,19 @@
         <v>77</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="N124" t="s" s="2">
         <v>647</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>77</v>
@@ -15997,7 +15993,7 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>75</v>
@@ -16023,7 +16019,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16105,7 +16101,7 @@
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>75</v>
@@ -16131,7 +16127,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16157,16 +16153,16 @@
         <v>188</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>652</v>
       </c>
-      <c r="L126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>655</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>77</v>
@@ -16194,10 +16190,10 @@
         <v>202</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>77</v>
@@ -16215,7 +16211,7 @@
         <v>77</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>75</v>
@@ -16241,7 +16237,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16267,14 +16263,14 @@
         <v>188</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>77</v>
@@ -16302,10 +16298,10 @@
         <v>202</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>77</v>
@@ -16323,7 +16319,7 @@
         <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>75</v>
@@ -16349,7 +16345,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16372,19 +16368,19 @@
         <v>77</v>
       </c>
       <c r="J128" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="K128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>665</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>667</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>77</v>
@@ -16433,7 +16429,7 @@
         <v>77</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>75</v>
@@ -16448,7 +16444,7 @@
         <v>97</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>77</v>
@@ -16459,7 +16455,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16482,17 +16478,17 @@
         <v>77</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>77</v>
@@ -16541,7 +16537,7 @@
         <v>77</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>75</v>
@@ -16567,7 +16563,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16673,7 +16669,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16699,10 +16695,10 @@
         <v>130</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L131" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M131" t="s" s="2">
         <v>166</v>
@@ -16781,11 +16777,11 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -16807,10 +16803,10 @@
         <v>130</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L132" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M132" t="s" s="2">
         <v>166</v>
@@ -16865,7 +16861,7 @@
         <v>77</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>75</v>
@@ -16891,7 +16887,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16914,17 +16910,17 @@
         <v>77</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L133" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>77</v>
@@ -16973,7 +16969,7 @@
         <v>77</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>85</v>
@@ -16999,7 +16995,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17025,14 +17021,14 @@
         <v>188</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L134" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>77</v>
@@ -17060,11 +17056,11 @@
         <v>202</v>
       </c>
       <c r="X134" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="Y134" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="Y134" t="s" s="2">
-        <v>590</v>
-      </c>
       <c r="Z134" t="s" s="2">
         <v>77</v>
       </c>
@@ -17081,7 +17077,7 @@
         <v>77</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>75</v>
@@ -17107,7 +17103,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17133,16 +17129,16 @@
         <v>188</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="L135" t="s" s="2">
+      <c r="M135" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>77</v>
@@ -17170,11 +17166,11 @@
         <v>202</v>
       </c>
       <c r="X135" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="Y135" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="Y135" t="s" s="2">
-        <v>597</v>
-      </c>
       <c r="Z135" t="s" s="2">
         <v>77</v>
       </c>
@@ -17191,7 +17187,7 @@
         <v>77</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>75</v>
@@ -17217,11 +17213,11 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -17243,16 +17239,16 @@
         <v>188</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M136" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="N136" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>77</v>
@@ -17280,10 +17276,10 @@
         <v>202</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>603</v>
+        <v>678</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>77</v>
@@ -17301,7 +17297,7 @@
         <v>77</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>85</v>
@@ -17327,7 +17323,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17353,16 +17349,16 @@
         <v>188</v>
       </c>
       <c r="K137" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="L137" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M137" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="L137" t="s" s="2">
+      <c r="N137" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>77</v>
@@ -17390,10 +17386,10 @@
         <v>202</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>77</v>
@@ -17411,7 +17407,7 @@
         <v>77</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>75</v>
@@ -17437,7 +17433,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17463,16 +17459,16 @@
         <v>188</v>
       </c>
       <c r="K138" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M138" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="L138" t="s" s="2">
+      <c r="N138" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>77</v>
@@ -17500,10 +17496,10 @@
         <v>202</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="Z138" t="s" s="2">
         <v>77</v>
@@ -17521,7 +17517,7 @@
         <v>77</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>75</v>
@@ -17547,7 +17543,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17570,17 +17566,17 @@
         <v>77</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="L139" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>77</v>
@@ -17629,7 +17625,7 @@
         <v>77</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>75</v>
@@ -17655,7 +17651,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17678,17 +17674,17 @@
         <v>77</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>689</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>77</v>
@@ -17737,7 +17733,7 @@
         <v>77</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>75</v>
@@ -17763,7 +17759,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17786,19 +17782,19 @@
         <v>77</v>
       </c>
       <c r="J141" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="K141" t="s" s="2">
+      <c r="M141" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="L141" t="s" s="2">
+      <c r="N141" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>77</v>
@@ -17847,7 +17843,7 @@
         <v>77</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>75</v>
@@ -17873,7 +17869,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17896,19 +17892,19 @@
         <v>77</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K142" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="L142" t="s" s="2">
         <v>692</v>
       </c>
-      <c r="L142" t="s" s="2">
-        <v>693</v>
-      </c>
       <c r="M142" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>77</v>
@@ -17957,7 +17953,7 @@
         <v>77</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>75</v>
@@ -17983,7 +17979,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18065,7 +18061,7 @@
         <v>77</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>75</v>
@@ -18091,7 +18087,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18114,17 +18110,17 @@
         <v>77</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>77</v>
@@ -18173,7 +18169,7 @@
         <v>77</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>75</v>
@@ -18199,7 +18195,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18305,7 +18301,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18331,10 +18327,10 @@
         <v>130</v>
       </c>
       <c r="K146" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L146" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M146" t="s" s="2">
         <v>166</v>
@@ -18413,11 +18409,11 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -18439,10 +18435,10 @@
         <v>130</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L147" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M147" t="s" s="2">
         <v>166</v>
@@ -18497,7 +18493,7 @@
         <v>77</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>75</v>
@@ -18523,7 +18519,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18546,17 +18542,17 @@
         <v>77</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K148" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L148" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>77</v>
@@ -18605,7 +18601,7 @@
         <v>77</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>85</v>
@@ -18631,7 +18627,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -18657,14 +18653,14 @@
         <v>188</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L149" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>77</v>
@@ -18692,11 +18688,11 @@
         <v>202</v>
       </c>
       <c r="X149" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="Y149" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="Y149" t="s" s="2">
-        <v>590</v>
-      </c>
       <c r="Z149" t="s" s="2">
         <v>77</v>
       </c>
@@ -18713,7 +18709,7 @@
         <v>77</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>75</v>
@@ -18739,7 +18735,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -18765,16 +18761,16 @@
         <v>188</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L150" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="L150" t="s" s="2">
+      <c r="M150" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="M150" t="s" s="2">
+      <c r="N150" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>77</v>
@@ -18802,11 +18798,11 @@
         <v>202</v>
       </c>
       <c r="X150" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="Y150" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="Y150" t="s" s="2">
-        <v>597</v>
-      </c>
       <c r="Z150" t="s" s="2">
         <v>77</v>
       </c>
@@ -18823,7 +18819,7 @@
         <v>77</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>75</v>
@@ -18849,7 +18845,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18875,16 +18871,16 @@
         <v>188</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M151" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="N151" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>77</v>
@@ -18912,10 +18908,10 @@
         <v>202</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>603</v>
+        <v>678</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>77</v>
@@ -18933,7 +18929,7 @@
         <v>77</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>85</v>
@@ -18959,7 +18955,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18985,16 +18981,16 @@
         <v>188</v>
       </c>
       <c r="K152" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="L152" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M152" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="L152" t="s" s="2">
+      <c r="N152" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>77</v>
@@ -19022,10 +19018,10 @@
         <v>202</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>77</v>
@@ -19043,7 +19039,7 @@
         <v>77</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>75</v>
@@ -19069,7 +19065,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19095,16 +19091,16 @@
         <v>188</v>
       </c>
       <c r="K153" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M153" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="L153" t="s" s="2">
+      <c r="N153" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>77</v>
@@ -19132,10 +19128,10 @@
         <v>202</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="Z153" t="s" s="2">
         <v>77</v>
@@ -19153,7 +19149,7 @@
         <v>77</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>75</v>
@@ -19179,7 +19175,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19202,17 +19198,17 @@
         <v>77</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="L154" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>77</v>
@@ -19261,7 +19257,7 @@
         <v>77</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>75</v>
@@ -19287,7 +19283,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19310,17 +19306,17 @@
         <v>77</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K155" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="L155" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>689</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>77</v>
@@ -19369,7 +19365,7 @@
         <v>77</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>75</v>
@@ -19395,7 +19391,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19418,19 +19414,19 @@
         <v>77</v>
       </c>
       <c r="J156" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="K156" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="L156" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="K156" t="s" s="2">
+      <c r="M156" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="L156" t="s" s="2">
+      <c r="N156" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>77</v>
@@ -19479,7 +19475,7 @@
         <v>77</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>75</v>
@@ -19505,7 +19501,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19528,19 +19524,19 @@
         <v>77</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K157" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="L157" t="s" s="2">
         <v>692</v>
       </c>
-      <c r="L157" t="s" s="2">
-        <v>693</v>
-      </c>
       <c r="M157" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>77</v>
@@ -19589,7 +19585,7 @@
         <v>77</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>75</v>
@@ -19615,7 +19611,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -19697,7 +19693,7 @@
         <v>77</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>75</v>
@@ -19723,7 +19719,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19746,17 +19742,17 @@
         <v>77</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="L159" t="s" s="2">
         <v>711</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>77</v>
@@ -19805,7 +19801,7 @@
         <v>77</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>75</v>
